--- a/upload/template/employee/Bulk Upload Template.xlsx
+++ b/upload/template/employee/Bulk Upload Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Technologies" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="72">
   <si>
     <t xml:space="preserve">Sr. No</t>
   </si>
@@ -135,9 +135,6 @@
     <t xml:space="preserve">E0125</t>
   </si>
   <si>
-    <t xml:space="preserve">Ranjana Mishra</t>
-  </si>
-  <si>
     <t xml:space="preserve">ranjana@quadwave.com</t>
   </si>
   <si>
@@ -184,6 +181,39 @@
   </si>
   <si>
     <t xml:space="preserve">juhi@quadwave.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E0130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mishra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mishranjana21@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E0131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dmrunali613@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E0132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vinit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dondapativinit@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E0133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pratiksha </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pratikshawa20@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Sr.No</t>
@@ -486,10 +516,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -572,7 +602,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="n">
         <v>2</v>
       </c>
@@ -604,7 +634,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="n">
         <v>3</v>
       </c>
@@ -668,16 +698,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>37</v>
-      </c>
+      <c r="C6" s="6"/>
       <c r="D6" s="7" t="n">
         <v>44922</v>
       </c>
@@ -688,7 +716,7 @@
         <v>20</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>22</v>
@@ -705,10 +733,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="D7" s="7" t="n">
         <v>44923</v>
@@ -717,13 +745,13 @@
         <v>35952</v>
       </c>
       <c r="F7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="H7" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>43</v>
       </c>
       <c r="I7" s="9" t="n">
         <v>9823546721</v>
@@ -732,15 +760,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>45</v>
       </c>
       <c r="D8" s="7" t="n">
         <v>44924</v>
@@ -752,10 +780,10 @@
         <v>26</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I8" s="9" t="n">
         <v>9052086452</v>
@@ -764,15 +792,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>48</v>
       </c>
       <c r="D9" s="7" t="n">
         <v>44925</v>
@@ -781,13 +809,13 @@
         <v>35952</v>
       </c>
       <c r="F9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>50</v>
-      </c>
       <c r="H9" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I9" s="9" t="n">
         <v>1209782345</v>
@@ -801,10 +829,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="0" t="s">
         <v>51</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>52</v>
       </c>
       <c r="D10" s="7" t="n">
         <v>44926</v>
@@ -813,10 +841,10 @@
         <v>35953</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>22</v>
@@ -825,6 +853,134 @@
         <v>4123487659</v>
       </c>
       <c r="J10" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="7" t="n">
+        <v>44918</v>
+      </c>
+      <c r="E11" s="7" t="n">
+        <v>35952</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="9" t="n">
+        <v>8723456712</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="7" t="n">
+        <v>44918</v>
+      </c>
+      <c r="E12" s="7" t="n">
+        <v>35952</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="9" t="n">
+        <v>9876452367</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="7" t="n">
+        <v>44918</v>
+      </c>
+      <c r="E13" s="7" t="n">
+        <v>35952</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="9" t="n">
+        <v>1234543267</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="7" t="n">
+        <v>44918</v>
+      </c>
+      <c r="E14" s="7" t="n">
+        <v>35952</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="9" t="n">
+        <v>2345678990</v>
+      </c>
+      <c r="J14" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -860,7 +1016,7 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -873,10 +1029,10 @@
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -884,7 +1040,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -892,7 +1048,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -900,7 +1056,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -908,7 +1064,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -916,7 +1072,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -924,7 +1080,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/upload/template/employee/Bulk Upload Template.xlsx
+++ b/upload/template/employee/Bulk Upload Template.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="61">
   <si>
     <t xml:space="preserve">Sr. No</t>
   </si>
@@ -135,6 +135,9 @@
     <t xml:space="preserve">E0125</t>
   </si>
   <si>
+    <t xml:space="preserve">Ranjana Mishra</t>
+  </si>
+  <si>
     <t xml:space="preserve">ranjana@quadwave.com</t>
   </si>
   <si>
@@ -162,9 +165,6 @@
     <t xml:space="preserve">manish@quadwave.com</t>
   </si>
   <si>
-    <t xml:space="preserve">E0128</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sachin Rathod</t>
   </si>
   <si>
@@ -181,39 +181,6 @@
   </si>
   <si>
     <t xml:space="preserve">juhi@quadwave.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E0130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mishra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mishranjana21@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E0131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dmrunali613@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E0132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vinit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dondapativinit@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E0133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pratiksha </t>
-  </si>
-  <si>
-    <t xml:space="preserve">pratikshawa20@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Sr.No</t>
@@ -516,10 +483,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -705,7 +672,9 @@
       <c r="B6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="D6" s="7" t="n">
         <v>44922</v>
       </c>
@@ -716,7 +685,7 @@
         <v>20</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>22</v>
@@ -733,10 +702,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D7" s="7" t="n">
         <v>44923</v>
@@ -745,13 +714,13 @@
         <v>35952</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I7" s="9" t="n">
         <v>9823546721</v>
@@ -760,15 +729,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D8" s="7" t="n">
         <v>44924</v>
@@ -780,10 +749,10 @@
         <v>26</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I8" s="9" t="n">
         <v>9052086452</v>
@@ -797,7 +766,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>47</v>
@@ -815,7 +784,7 @@
         <v>49</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I9" s="9" t="n">
         <v>1209782345</v>
@@ -856,134 +825,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="7" t="n">
-        <v>44918</v>
-      </c>
-      <c r="E11" s="7" t="n">
-        <v>35952</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" s="9" t="n">
-        <v>8723456712</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="7" t="n">
-        <v>44918</v>
-      </c>
-      <c r="E12" s="7" t="n">
-        <v>35952</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="9" t="n">
-        <v>9876452367</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="7" t="n">
-        <v>44918</v>
-      </c>
-      <c r="E13" s="7" t="n">
-        <v>35952</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="9" t="n">
-        <v>1234543267</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="7" t="n">
-        <v>44918</v>
-      </c>
-      <c r="E14" s="7" t="n">
-        <v>35952</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I14" s="9" t="n">
-        <v>2345678990</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" display="pratiksha@quadwave.com"/>
@@ -1029,10 +874,10 @@
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1040,7 +885,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1048,7 +893,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1056,7 +901,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1064,7 +909,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1072,7 +917,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1080,7 +925,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/upload/template/employee/Bulk Upload Template.xlsx
+++ b/upload/template/employee/Bulk Upload Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Technologies" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="56">
   <si>
     <t xml:space="preserve">Sr. No</t>
   </si>
@@ -33,9 +33,6 @@
     <t xml:space="preserve">HTML5</t>
   </si>
   <si>
-    <t xml:space="preserve">.Net</t>
-  </si>
-  <si>
     <t xml:space="preserve">ReactJs</t>
   </si>
   <si>
@@ -45,9 +42,6 @@
     <t xml:space="preserve">Angular</t>
   </si>
   <si>
-    <t xml:space="preserve">Java</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sr No</t>
   </si>
   <si>
@@ -192,16 +186,7 @@
     <t xml:space="preserve">Data engineer 1</t>
   </si>
   <si>
-    <t xml:space="preserve">Data engineer 2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Data engineer 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data engineer 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data engineer 6</t>
   </si>
   <si>
     <t xml:space="preserve">Data engineer 7</t>
@@ -397,7 +382,7 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -428,16 +413,13 @@
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -445,7 +427,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -453,15 +435,15 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -485,8 +467,8 @@
   </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="1" sqref="B7 B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -507,34 +489,34 @@
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -542,10 +524,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D2" s="7" t="n">
         <v>44918</v>
@@ -554,19 +536,19 @@
         <v>35952</v>
       </c>
       <c r="F2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="I2" s="9" t="n">
         <v>8723456712</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -574,10 +556,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3" s="7" t="n">
         <v>44919</v>
@@ -586,19 +568,19 @@
         <v>36657</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I3" s="9" t="n">
         <v>9876452367</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -606,10 +588,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4" s="7" t="n">
         <v>44920</v>
@@ -618,19 +600,19 @@
         <v>35952</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I4" s="9" t="n">
         <v>1234543267</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -638,10 +620,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D5" s="7" t="n">
         <v>44921</v>
@@ -650,19 +632,19 @@
         <v>35952</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I5" s="9" t="n">
         <v>9856432111</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -670,10 +652,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D6" s="7" t="n">
         <v>44922</v>
@@ -682,19 +664,19 @@
         <v>37291</v>
       </c>
       <c r="F6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="I6" s="9" t="n">
         <v>9823457281</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -702,10 +684,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D7" s="7" t="n">
         <v>44923</v>
@@ -714,19 +696,19 @@
         <v>35952</v>
       </c>
       <c r="F7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>43</v>
       </c>
       <c r="I7" s="9" t="n">
         <v>9823546721</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -734,10 +716,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D8" s="7" t="n">
         <v>44924</v>
@@ -746,19 +728,19 @@
         <v>35952</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I8" s="9" t="n">
         <v>9052086452</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -766,10 +748,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D9" s="7" t="n">
         <v>44925</v>
@@ -778,19 +760,19 @@
         <v>35952</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I9" s="9" t="n">
         <v>1209782345</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -798,10 +780,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D10" s="7" t="n">
         <v>44926</v>
@@ -810,19 +792,19 @@
         <v>35953</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>4123487659</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -862,7 +844,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="H14" activeCellId="1" sqref="B7 H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -874,10 +856,10 @@
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -885,23 +867,21 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>56</v>
-      </c>
+      <c r="B3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -909,23 +889,21 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>59</v>
-      </c>
+      <c r="B6" s="10"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/upload/template/employee/Bulk Upload Template.xlsx
+++ b/upload/template/employee/Bulk Upload Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Technologies" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="54">
   <si>
     <t xml:space="preserve">Sr. No</t>
   </si>
@@ -90,7 +90,7 @@
     <t xml:space="preserve">Pune</t>
   </si>
   <si>
-    <t xml:space="preserve">E0122</t>
+    <t xml:space="preserve">E0123</t>
   </si>
   <si>
     <t xml:space="preserve">Mrunali Desai</t>
@@ -102,9 +102,6 @@
     <t xml:space="preserve">mrunali@quadwave.com</t>
   </si>
   <si>
-    <t xml:space="preserve">E0123</t>
-  </si>
-  <si>
     <t xml:space="preserve">Suraksha Nigade</t>
   </si>
   <si>
@@ -115,9 +112,6 @@
   </si>
   <si>
     <t xml:space="preserve">E0124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pratiksha Sanam</t>
   </si>
   <si>
     <t xml:space="preserve">.NET Developer</t>
@@ -382,8 +376,8 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -467,8 +461,8 @@
   </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="1" sqref="B7 B9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -588,10 +582,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>27</v>
       </c>
       <c r="D4" s="7" t="n">
         <v>44920</v>
@@ -600,10 +594,10 @@
         <v>35952</v>
       </c>
       <c r="F4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>29</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>20</v>
@@ -615,16 +609,14 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>31</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C5" s="6"/>
       <c r="D5" s="7" t="n">
         <v>44921</v>
       </c>
@@ -632,10 +624,10 @@
         <v>35952</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>20</v>
@@ -652,10 +644,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D6" s="7" t="n">
         <v>44922</v>
@@ -667,7 +659,7 @@
         <v>18</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>20</v>
@@ -684,10 +676,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D7" s="7" t="n">
         <v>44923</v>
@@ -696,13 +688,13 @@
         <v>35952</v>
       </c>
       <c r="F7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="I7" s="9" t="n">
         <v>9823546721</v>
@@ -716,10 +708,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D8" s="7" t="n">
         <v>44924</v>
@@ -731,10 +723,10 @@
         <v>24</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I8" s="9" t="n">
         <v>9052086452</v>
@@ -748,10 +740,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D9" s="7" t="n">
         <v>44925</v>
@@ -760,13 +752,13 @@
         <v>35952</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I9" s="9" t="n">
         <v>1209782345</v>
@@ -780,10 +772,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D10" s="7" t="n">
         <v>44926</v>
@@ -792,10 +784,10 @@
         <v>35953</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>20</v>
@@ -844,7 +836,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H14" activeCellId="1" sqref="B7 H14"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -856,10 +848,10 @@
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -867,7 +859,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -881,7 +873,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -889,7 +881,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -903,7 +895,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/upload/template/employee/Bulk Upload Template.xlsx
+++ b/upload/template/employee/Bulk Upload Template.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
   <si>
     <t xml:space="preserve">Sr. No</t>
   </si>
@@ -72,16 +72,19 @@
     <t xml:space="preserve">Location</t>
   </si>
   <si>
-    <t xml:space="preserve">E0121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pratiksha Wakekar</t>
+    <t xml:space="preserve">App Role Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E0101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p1</t>
   </si>
   <si>
     <t xml:space="preserve">Solution Developer</t>
   </si>
   <si>
-    <t xml:space="preserve">pratiksha@quadwave.com</t>
+    <t xml:space="preserve">p1@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Female</t>
@@ -90,85 +93,43 @@
     <t xml:space="preserve">Pune</t>
   </si>
   <si>
-    <t xml:space="preserve">E0123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mrunali Desai</t>
+    <t xml:space="preserve">E0102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p2</t>
   </si>
   <si>
     <t xml:space="preserve">Java Developer</t>
   </si>
   <si>
-    <t xml:space="preserve">mrunali@quadwave.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suraksha Nigade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Engineer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">suraksha@quadwave.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E0124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.NET Developer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pratiksha.s@quadwave.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E0125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ranjana Mishra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ranjana@quadwave.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E0126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Devkaran</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ReactJs Developer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">devkaran@quadwave.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Male</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E0127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manish Langhe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">manish@quadwave.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sachin Rathod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angular Developer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sachin@quadwave.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E0129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juhi Tipale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">juhi@quadwave.com</t>
+    <t xml:space="preserve">p2@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E0110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p10@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E0111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p11@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E0112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p12@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Sr.No</t>
@@ -283,7 +244,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -296,12 +257,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -364,7 +333,7 @@
     <tableColumn id="8" name="Gender"/>
     <tableColumn id="9" name="Mobile"/>
     <tableColumn id="10" name="Location"/>
-    <tableColumn id="11" name=""/>
+    <tableColumn id="11" name="App Role Id"/>
   </tableColumns>
 </table>
 </file>
@@ -459,10 +428,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J1048576"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -477,343 +446,223 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="17.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="3" width="14.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="8.53"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="K1" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="n">
+      <c r="A2" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="7" t="n">
+      <c r="C2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="9" t="n">
         <v>44918</v>
       </c>
-      <c r="E2" s="7" t="n">
+      <c r="E2" s="9" t="n">
         <v>35952</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="G2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="9" t="n">
+      <c r="H2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="11" t="n">
         <v>8723456712</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="9" t="n">
+        <v>44919</v>
+      </c>
+      <c r="E3" s="9" t="n">
+        <v>35953</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="n">
+      <c r="I3" s="11" t="n">
+        <v>9876452367</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="9" t="n">
+        <v>44920</v>
+      </c>
+      <c r="E4" s="9" t="n">
+        <v>35952</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="11" t="n">
+        <v>1234543267</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="9" t="n">
+        <v>44921</v>
+      </c>
+      <c r="E5" s="9" t="n">
+        <v>35953</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="11" t="n">
+        <v>1234543268</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="9" t="n">
+        <v>44922</v>
+      </c>
+      <c r="E6" s="9" t="n">
+        <v>35954</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="11" t="n">
+        <v>1234543268</v>
+      </c>
+      <c r="J6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="7" t="n">
-        <v>44919</v>
-      </c>
-      <c r="E3" s="7" t="n">
-        <v>36657</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="9" t="n">
-        <v>9876452367</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="7" t="n">
-        <v>44920</v>
-      </c>
-      <c r="E4" s="7" t="n">
-        <v>35952</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="9" t="n">
-        <v>1234543267</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7" t="n">
-        <v>44921</v>
-      </c>
-      <c r="E5" s="7" t="n">
-        <v>35952</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="9" t="n">
-        <v>9856432111</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="7" t="n">
-        <v>44922</v>
-      </c>
-      <c r="E6" s="7" t="n">
-        <v>37291</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="9" t="n">
-        <v>9823457281</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="7" t="n">
-        <v>44923</v>
-      </c>
-      <c r="E7" s="7" t="n">
-        <v>35952</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="9" t="n">
-        <v>9823546721</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="7" t="n">
-        <v>44924</v>
-      </c>
-      <c r="E8" s="7" t="n">
-        <v>35952</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" s="9" t="n">
-        <v>9052086452</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="7" t="n">
-        <v>44925</v>
-      </c>
-      <c r="E9" s="7" t="n">
-        <v>35952</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9" s="9" t="n">
-        <v>1209782345</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="7" t="n">
-        <v>44926</v>
-      </c>
-      <c r="E10" s="7" t="n">
-        <v>35953</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="0" t="n">
-        <v>4123487659</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="K6" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" display="pratiksha@quadwave.com"/>
-    <hyperlink ref="G3" r:id="rId2" display="mrunali@quadwave.com"/>
-    <hyperlink ref="G4" r:id="rId3" display="suraksha@quadwave.com"/>
-    <hyperlink ref="G5" r:id="rId4" display="pratiksha.s@quadwave.com"/>
-    <hyperlink ref="G6" r:id="rId5" display="ranjana@quadwave.com"/>
-    <hyperlink ref="G7" r:id="rId6" display="devkaran@quadwave.com"/>
-    <hyperlink ref="G8" r:id="rId7" display="manish@quadwave.com"/>
-    <hyperlink ref="G9" r:id="rId8" display="sachin@quadwave.com"/>
-    <hyperlink ref="G10" r:id="rId9" display="juhi@quadwave.com"/>
+    <hyperlink ref="G2" r:id="rId1" display="p1@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -823,7 +672,7 @@
     <oddFooter/>
   </headerFooter>
   <tableParts>
-    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -833,10 +682,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -847,11 +696,11 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>50</v>
+      <c r="A1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -859,45 +708,50 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="10"/>
+      <c r="B3" s="12" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>52</v>
+      <c r="B4" s="12" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>52</v>
+      <c r="B5" s="12" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="10"/>
+      <c r="B6" s="12" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
+      <c r="B7" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/upload/template/employee/Bulk Upload Template.xlsx
+++ b/upload/template/employee/Bulk Upload Template.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
   <si>
     <t xml:space="preserve">Sr. No</t>
   </si>
@@ -123,13 +123,22 @@
     <t xml:space="preserve">p11@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">E0112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p12@gmail.com</t>
+    <t xml:space="preserve">E0114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p14@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E0115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p15@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Sr.No</t>
@@ -428,10 +437,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -657,6 +666,41 @@
         <v>22</v>
       </c>
       <c r="K6" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="9" t="n">
+        <v>44922</v>
+      </c>
+      <c r="E7" s="9" t="n">
+        <v>35954</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="11" t="n">
+        <v>1234543268</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="3" t="n">
         <v>2</v>
       </c>
     </row>
@@ -697,10 +741,10 @@
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -708,7 +752,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -724,7 +768,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -732,7 +776,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -748,7 +792,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/upload/template/employee/Bulk Upload Template.xlsx
+++ b/upload/template/employee/Bulk Upload Template.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="59">
   <si>
     <t xml:space="preserve">Sr. No</t>
   </si>
@@ -139,6 +139,51 @@
   </si>
   <si>
     <t xml:space="preserve">p15@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E0119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p19@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E0120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p20@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E0121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p21@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E0122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p22@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E0123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p23@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Sr.No</t>
@@ -437,10 +482,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -702,6 +747,175 @@
       </c>
       <c r="K7" s="3" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="9" t="n">
+        <v>44922</v>
+      </c>
+      <c r="E8" s="9" t="n">
+        <v>35967</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="11" t="n">
+        <v>1234543268</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="9" t="n">
+        <v>44922</v>
+      </c>
+      <c r="E9" s="9" t="n">
+        <v>35959</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="11" t="n">
+        <v>1234543268</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="9" t="n">
+        <v>44922</v>
+      </c>
+      <c r="E10" s="9" t="n">
+        <v>35964</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="11" t="n">
+        <v>1234543268</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="9" t="n">
+        <v>44922</v>
+      </c>
+      <c r="E11" s="9" t="n">
+        <v>35964</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="9" t="n">
+        <v>44922</v>
+      </c>
+      <c r="E12" s="9" t="n">
+        <v>35964</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="11"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="3" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -741,10 +955,10 @@
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -752,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -768,7 +982,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -776,7 +990,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -792,7 +1006,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/upload/template/employee/Bulk Upload Template.xlsx
+++ b/upload/template/employee/Bulk Upload Template.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="59">
   <si>
     <t xml:space="preserve">Sr. No</t>
   </si>
@@ -484,8 +484,8 @@
   </sheetPr>
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -661,7 +661,7 @@
         <v>35953</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>32</v>
@@ -903,9 +903,7 @@
       <c r="E12" s="9" t="n">
         <v>35964</v>
       </c>
-      <c r="F12" s="8" t="s">
-        <v>19</v>
-      </c>
+      <c r="F12" s="8"/>
       <c r="G12" s="10" t="s">
         <v>53</v>
       </c>

--- a/upload/template/employee/Bulk Upload Template.xlsx
+++ b/upload/template/employee/Bulk Upload Template.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="62">
   <si>
     <t xml:space="preserve">Sr. No</t>
   </si>
@@ -72,103 +72,127 @@
     <t xml:space="preserve">Location</t>
   </si>
   <si>
+    <t xml:space="preserve">App Role Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E0101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solution Developer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p1@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Female</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pune</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E0102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Java Developer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p2@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E0110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p10@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E0111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p11@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E0114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p14@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E0115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p15@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E0119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p19@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E0120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p20@gmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">E0121</t>
   </si>
   <si>
-    <t xml:space="preserve">Pratiksha Wakekar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solution Developer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pratiksha@quadwave.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Female</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pune</t>
+    <t xml:space="preserve">p21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p21@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E0122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p22@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">E0123</t>
   </si>
   <si>
-    <t xml:space="preserve">Mrunali Desai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java Developer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mrunali@quadwave.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suraksha Nigade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Engineer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">suraksha@quadwave.com</t>
+    <t xml:space="preserve">p23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p23@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">E0124</t>
   </si>
   <si>
-    <t xml:space="preserve">.NET Developer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pratiksha.s@quadwave.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E0125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ranjana Mishra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ranjana@quadwave.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E0126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Devkaran</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ReactJs Developer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">devkaran@quadwave.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Male</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E0127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manish Langhe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">manish@quadwave.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sachin Rathod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angular Developer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sachin@quadwave.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E0129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juhi Tipale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">juhi@quadwave.com</t>
+    <t xml:space="preserve">p24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p24@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Sr.No</t>
@@ -283,7 +307,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -296,12 +320,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -364,7 +396,7 @@
     <tableColumn id="8" name="Gender"/>
     <tableColumn id="9" name="Mobile"/>
     <tableColumn id="10" name="Location"/>
-    <tableColumn id="11" name=""/>
+    <tableColumn id="11" name="App Role Id"/>
   </tableColumns>
 </table>
 </file>
@@ -459,10 +491,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J1048576"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -477,343 +509,462 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="17.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="3" width="14.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="8.53"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="K1" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="A2" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="7" t="n">
+      <c r="C2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="9" t="n">
         <v>44918</v>
       </c>
-      <c r="E2" s="7" t="n">
+      <c r="E2" s="9" t="n">
         <v>35952</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="G2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="9" t="n">
+      <c r="H2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="11" t="n">
         <v>8723456712</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="n">
+      <c r="J2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="9" t="n">
+        <v>44919</v>
+      </c>
+      <c r="E3" s="9" t="n">
+        <v>35953</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="11" t="n">
+        <v>9876452367</v>
+      </c>
+      <c r="J3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="7" t="n">
-        <v>44919</v>
-      </c>
-      <c r="E3" s="7" t="n">
-        <v>36657</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="8" t="s">
+      <c r="K3" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="9" t="n">
+        <v>44920</v>
+      </c>
+      <c r="E4" s="9" t="n">
+        <v>35952</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="9" t="n">
-        <v>9876452367</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="G4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="11" t="n">
+        <v>1234543267</v>
+      </c>
+      <c r="J4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="7" t="n">
-        <v>44920</v>
-      </c>
-      <c r="E4" s="7" t="n">
-        <v>35952</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="9" t="n">
-        <v>1234543267</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="n">
+      <c r="K4" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7" t="n">
+      <c r="B5" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="9" t="n">
         <v>44921</v>
       </c>
-      <c r="E5" s="7" t="n">
-        <v>35952</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="9" t="n">
-        <v>9856432111</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="n">
+      <c r="E5" s="9" t="n">
+        <v>35953</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="11" t="n">
+        <v>1234543268</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="7" t="n">
+      <c r="C6" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="9" t="n">
         <v>44922</v>
       </c>
-      <c r="E6" s="7" t="n">
-        <v>37291</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="9" t="n">
-        <v>9823457281</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="n">
+      <c r="E6" s="9" t="n">
+        <v>35954</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="11" t="n">
+        <v>1234543268</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="7" t="n">
-        <v>44923</v>
-      </c>
-      <c r="E7" s="7" t="n">
-        <v>35952</v>
-      </c>
-      <c r="F7" s="6" t="s">
+      <c r="C7" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="D7" s="9" t="n">
+        <v>44922</v>
+      </c>
+      <c r="E7" s="9" t="n">
+        <v>35954</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="11" t="n">
+        <v>1234543268</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="9" t="n">
-        <v>9823546721</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="C8" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="9" t="n">
+        <v>44922</v>
+      </c>
+      <c r="E8" s="9" t="n">
+        <v>35967</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="7" t="n">
-        <v>44924</v>
-      </c>
-      <c r="E8" s="7" t="n">
-        <v>35952</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="8" t="s">
+      <c r="H8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="11" t="n">
+        <v>1234543268</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" s="9" t="n">
-        <v>9052086452</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="7" t="n">
-        <v>44925</v>
-      </c>
-      <c r="E9" s="7" t="n">
-        <v>35952</v>
-      </c>
-      <c r="F9" s="6" t="s">
+      <c r="D9" s="9" t="n">
+        <v>44922</v>
+      </c>
+      <c r="E9" s="9" t="n">
+        <v>35959</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="H9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="11" t="n">
+        <v>1234543268</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9" s="9" t="n">
-        <v>1209782345</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="C10" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="D10" s="9" t="n">
+        <v>44922</v>
+      </c>
+      <c r="E10" s="9" t="n">
+        <v>35964</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="7" t="n">
-        <v>44926</v>
-      </c>
-      <c r="E10" s="7" t="n">
-        <v>35953</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" s="0" t="s">
+      <c r="H10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="11" t="n">
+        <v>1234543268</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="H10" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="0" t="n">
-        <v>4123487659</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="C11" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="9" t="n">
+        <v>44922</v>
+      </c>
+      <c r="E11" s="9" t="n">
+        <v>35964</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="9" t="n">
+        <v>44922</v>
+      </c>
+      <c r="E12" s="9" t="n">
+        <v>35964</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="11"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="9" t="n">
+        <v>45287</v>
+      </c>
+      <c r="E13" s="9" t="n">
+        <v>36329</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="11" t="n">
+        <v>1234543268</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" display="pratiksha@quadwave.com"/>
-    <hyperlink ref="G3" r:id="rId2" display="mrunali@quadwave.com"/>
-    <hyperlink ref="G4" r:id="rId3" display="suraksha@quadwave.com"/>
-    <hyperlink ref="G5" r:id="rId4" display="pratiksha.s@quadwave.com"/>
-    <hyperlink ref="G6" r:id="rId5" display="ranjana@quadwave.com"/>
-    <hyperlink ref="G7" r:id="rId6" display="devkaran@quadwave.com"/>
-    <hyperlink ref="G8" r:id="rId7" display="manish@quadwave.com"/>
-    <hyperlink ref="G9" r:id="rId8" display="sachin@quadwave.com"/>
-    <hyperlink ref="G10" r:id="rId9" display="juhi@quadwave.com"/>
+    <hyperlink ref="G2" r:id="rId1" display="p1@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -823,7 +974,7 @@
     <oddFooter/>
   </headerFooter>
   <tableParts>
-    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -833,10 +984,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -847,11 +998,11 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>50</v>
+      <c r="A1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -859,45 +1010,50 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="10"/>
+      <c r="B3" s="12" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>52</v>
+      <c r="B4" s="12" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>52</v>
+      <c r="B5" s="12" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="10"/>
+      <c r="B6" s="12" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
+      <c r="B7" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
